--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_full_cell.annotation_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_full_cell.annotation_speed_coherence.xlsx
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9432959586990123</v>
+        <v>0.9432972937214131</v>
       </c>
       <c r="C3" t="n">
         <v>0.9369867025194941</v>
